--- a/Proje/Ödev Raporu.xlsx
+++ b/Proje/Ödev Raporu.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DoubleFace\Desktop\Yazılım Mühendisliği\Erasmus İPG Computer Science En\Data Bases\Databases Project\derli\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DoubleFace\Desktop\Yazılım Mühendisliği\Erasmus İPG Computer Science En\Data Bases\Databases Project\Databases Project GitHub\DataBaseProject\Proje\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist Avaliação" sheetId="1" r:id="rId1"/>
@@ -633,7 +633,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -708,21 +708,81 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -735,18 +795,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -765,53 +813,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="121">
@@ -1277,7 +1280,7 @@
   </sheetPr>
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -1295,32 +1298,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -1347,11 +1350,13 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="16"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="61">
+        <v>43077</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1369,58 +1374,58 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="38"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="15">
         <v>1700928</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="57"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="46"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="15">
         <v>1700956</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="46"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="15">
         <v>1700957</v>
       </c>
@@ -1435,16 +1440,16 @@
       <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="44"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="57"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -1499,17 +1504,17 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
+      <c r="A15" s="35">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="47">
         <f>A15*20</f>
         <v>1.5</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="32">
         <v>0</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -1521,7 +1526,7 @@
       <c r="G15" s="18">
         <v>0</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="26">
         <f>$A15*(G19*10%+IF(OR(G18="S",G18="s"),1,0)*5%+G17*50%+IF(OR(G16="S",G16="s"),1,0)*20%+IF(G15&gt;6,6,G15)/6*15%)*20</f>
         <v>0</v>
       </c>
@@ -1529,16 +1534,16 @@
         <f t="shared" ref="I15:I43" si="0">G15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="26">
         <f>$A15*(I19*10%+IF(OR(I18="S",I18="s"),1,0)*5%+I17*50%+IF(OR(I16="S",I16="s"),1,0)*20%+IF(I15&gt;6,6,I15)/6*15%)*20</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="52"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="6" t="s">
         <v>0</v>
       </c>
@@ -1548,18 +1553,18 @@
       <c r="G16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="36"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="20" t="str">
         <f t="shared" si="0"/>
         <v>n</v>
       </c>
-      <c r="J16" s="36"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="52"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="6" t="s">
         <v>54</v>
       </c>
@@ -1569,18 +1574,18 @@
       <c r="G17" s="19">
         <v>0</v>
       </c>
-      <c r="H17" s="36"/>
+      <c r="H17" s="27"/>
       <c r="I17" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="36"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="52"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="6" t="s">
         <v>1</v>
       </c>
@@ -1590,18 +1595,18 @@
       <c r="G18" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="36"/>
+      <c r="H18" s="27"/>
       <c r="I18" s="20" t="str">
         <f t="shared" si="0"/>
         <v>n</v>
       </c>
-      <c r="J18" s="36"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="52"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="6" t="s">
         <v>17</v>
       </c>
@@ -1611,25 +1616,25 @@
       <c r="G19" s="19">
         <v>0</v>
       </c>
-      <c r="H19" s="36"/>
+      <c r="H19" s="27"/>
       <c r="I19" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="36"/>
+      <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
+      <c r="A20" s="35">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="B20" s="59">
+      <c r="B20" s="37">
         <f>A20*20</f>
         <v>1.5</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="51">
+      <c r="D20" s="32">
         <v>0</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -1641,7 +1646,7 @@
       <c r="G20" s="18">
         <v>0</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="26">
         <f>$A20*(IF(G21&gt;16,16,G21)/16*80%+IF(G20&gt;2,2,G20)/2*20%)*20</f>
         <v>0</v>
       </c>
@@ -1649,16 +1654,16 @@
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="26">
         <f>$A20*(IF(I21&gt;16,16,I21)/16*80%+IF(I20&gt;2,2,I20)/2*20%)*20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="53"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="6" t="s">
         <v>49</v>
       </c>
@@ -1668,12 +1673,12 @@
       <c r="G21" s="18">
         <v>0</v>
       </c>
-      <c r="H21" s="58"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="20">
         <f>G21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="58"/>
+      <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -1712,17 +1717,17 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="50">
+      <c r="A23" s="29">
         <v>0.3</v>
       </c>
-      <c r="B23" s="45">
+      <c r="B23" s="30">
         <f>A23*20</f>
         <v>6</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D23" s="32">
         <v>0</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -1734,7 +1739,7 @@
       <c r="G23" s="19">
         <v>0</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="26">
         <f>$A23*(G23*75%+G24*25%)*20</f>
         <v>0</v>
       </c>
@@ -1742,16 +1747,16 @@
         <f>G23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="26">
         <f>$A23*(I23*75%+I24*25%)*20</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="53"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="6" t="s">
         <v>55</v>
       </c>
@@ -1761,25 +1766,25 @@
       <c r="G24" s="19">
         <v>0</v>
       </c>
-      <c r="H24" s="58"/>
+      <c r="H24" s="28"/>
       <c r="I24" s="20">
         <f t="shared" ref="I24:I27" si="1">G24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="58"/>
+      <c r="J24" s="28"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="50">
+      <c r="A25" s="29">
         <v>0.02</v>
       </c>
-      <c r="B25" s="45">
+      <c r="B25" s="30">
         <f>A25*20</f>
         <v>0.4</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="32">
         <v>0</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -1791,7 +1796,7 @@
       <c r="G25" s="18">
         <v>0</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="26">
         <f>$A25*(IF(G27&gt;2,2,G27)/2*30%+IF(G26&gt;2,2,G26)/2*30%+IF(G25&gt;2,2,G25)/2*40%)*20</f>
         <v>0</v>
       </c>
@@ -1799,16 +1804,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25" s="26">
         <f>$A25*(IF(I27&gt;2,2,I27)/2*30%+IF(I26&gt;2,2,I26)/2*30%+IF(I25&gt;2,2,I25)/2*40%)*20</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="52"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="33"/>
       <c r="E26" s="6" t="s">
         <v>24</v>
       </c>
@@ -1818,18 +1823,18 @@
       <c r="G26" s="18">
         <v>0</v>
       </c>
-      <c r="H26" s="36"/>
+      <c r="H26" s="27"/>
       <c r="I26" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="36"/>
+      <c r="J26" s="27"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="53"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="6" t="s">
         <v>23</v>
       </c>
@@ -1839,25 +1844,25 @@
       <c r="G27" s="18">
         <v>0</v>
       </c>
-      <c r="H27" s="58"/>
+      <c r="H27" s="28"/>
       <c r="I27" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J27" s="58"/>
+      <c r="J27" s="28"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="50">
+      <c r="A28" s="29">
         <v>0.05</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="30">
         <f>A28*20</f>
         <v>1</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="32">
         <v>0</v>
       </c>
       <c r="E28" s="6" t="s">
@@ -1869,7 +1874,7 @@
       <c r="G28" s="18">
         <v>0</v>
       </c>
-      <c r="H28" s="35">
+      <c r="H28" s="26">
         <f>$A28*(G29*75%+IF(G28&gt;2,2,G28)/2*25%)*20</f>
         <v>0</v>
       </c>
@@ -1877,16 +1882,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="35">
+      <c r="J28" s="26">
         <f>$A28*(I29*75%+IF(I28&gt;2,2,I28)/2*25%)*20</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="53"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="6" t="s">
         <v>53</v>
       </c>
@@ -1896,25 +1901,25 @@
       <c r="G29" s="19">
         <v>0</v>
       </c>
-      <c r="H29" s="58"/>
+      <c r="H29" s="28"/>
       <c r="I29" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="58"/>
+      <c r="J29" s="28"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="26">
+      <c r="A30" s="35">
         <v>0.1</v>
       </c>
-      <c r="B30" s="30">
+      <c r="B30" s="47">
         <f>A30*20</f>
         <v>2</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="51">
+      <c r="D30" s="32">
         <v>0</v>
       </c>
       <c r="E30" s="6" t="s">
@@ -1926,7 +1931,7 @@
       <c r="G30" s="18">
         <v>0</v>
       </c>
-      <c r="H30" s="35">
+      <c r="H30" s="26">
         <f>$A30*(G31*75%+IF(G30&gt;2,2,G30)/2*25%)*20</f>
         <v>0</v>
       </c>
@@ -1934,16 +1939,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="35">
+      <c r="J30" s="26">
         <f>$A30*(I31*50%+IF(I30&gt;2,2,I30)/2*50%)*20</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="53"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="34"/>
       <c r="E31" s="6" t="s">
         <v>57</v>
       </c>
@@ -1953,25 +1958,25 @@
       <c r="G31" s="19">
         <v>0</v>
       </c>
-      <c r="H31" s="58"/>
+      <c r="H31" s="28"/>
       <c r="I31" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J31" s="58"/>
+      <c r="J31" s="28"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26">
+      <c r="A32" s="35">
         <v>0.3</v>
       </c>
-      <c r="B32" s="30">
+      <c r="B32" s="47">
         <f>A32*20</f>
         <v>6</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="51">
+      <c r="D32" s="32">
         <v>0</v>
       </c>
       <c r="E32" s="6" t="s">
@@ -1983,7 +1988,7 @@
       <c r="G32" s="18">
         <v>0</v>
       </c>
-      <c r="H32" s="35">
+      <c r="H32" s="26">
         <f>$A32*(G41*50%+IF(G40&gt;4,4,G40)/4*5%+IF(OR(G39="S",G39="s"),1,0)*5%+G38*15%+IF(G37&gt;2,2,G37)/2*10%+IF(OR(G36="S",G36="s"),1,0)*10%+(IF(G35&gt;1,1,G35)/1+IF(G34&gt;1,1,G34)/1+IF(G33&gt;1,1,G33)/1+IF(G32&gt;1,1,G32)/1)/4*2.5%+(IF(SUM(G32:G35)&gt;7,7,SUM(G32:G35))-(IF(G35&gt;1,1,G35)/1+IF(G34&gt;1,1,G34)/1+IF(G33&gt;1,1,G33)/1+IF(G32&gt;1,1,G32)/1))/3*2.5%)*20</f>
         <v>0</v>
       </c>
@@ -1991,16 +1996,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J32" s="35">
+      <c r="J32" s="26">
         <f>$A32*(I41*50%+IF(I40&gt;4,4,I40)/4*5%+IF(OR(I39="S",I39="s"),1,0)*5%+I38*15%+IF(I37&gt;2,2,I37)/2*10%+IF(OR(I36="S",I36="s"),1,0)*10%+(IF(I35&gt;1,1,I35)/1+IF(I34&gt;1,1,I34)/1+IF(I33&gt;1,1,I33)/1+IF(I32&gt;1,1,I32)/1)/4*2.5%+(IF(SUM(I32:I35)&gt;7,7,SUM(I32:I35))-(IF(I35&gt;1,1,I35)/1+IF(I34&gt;1,1,I34)/1+IF(I33&gt;1,1,I33)/1+IF(I32&gt;1,1,I32)/1))/3*2.5%)*20</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="52"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="6" t="s">
         <v>44</v>
       </c>
@@ -2010,18 +2015,18 @@
       <c r="G33" s="18">
         <v>0</v>
       </c>
-      <c r="H33" s="36"/>
+      <c r="H33" s="27"/>
       <c r="I33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J33" s="36"/>
+      <c r="J33" s="27"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="52"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="6" t="s">
         <v>45</v>
       </c>
@@ -2031,18 +2036,18 @@
       <c r="G34" s="18">
         <v>0</v>
       </c>
-      <c r="H34" s="36"/>
+      <c r="H34" s="27"/>
       <c r="I34" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J34" s="36"/>
+      <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="52"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="33"/>
       <c r="E35" s="6" t="s">
         <v>26</v>
       </c>
@@ -2052,18 +2057,18 @@
       <c r="G35" s="18">
         <v>0</v>
       </c>
-      <c r="H35" s="36"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J35" s="36"/>
+      <c r="J35" s="27"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="52"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="33"/>
       <c r="E36" s="6" t="s">
         <v>25</v>
       </c>
@@ -2073,18 +2078,18 @@
       <c r="G36" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="36"/>
+      <c r="H36" s="27"/>
       <c r="I36" s="20" t="str">
         <f t="shared" si="0"/>
         <v>n</v>
       </c>
-      <c r="J36" s="36"/>
+      <c r="J36" s="27"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="52"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="33"/>
       <c r="E37" s="6" t="s">
         <v>20</v>
       </c>
@@ -2094,18 +2099,18 @@
       <c r="G37" s="18">
         <v>0</v>
       </c>
-      <c r="H37" s="36"/>
+      <c r="H37" s="27"/>
       <c r="I37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J37" s="36"/>
+      <c r="J37" s="27"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="52"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="33"/>
       <c r="E38" s="6" t="s">
         <v>58</v>
       </c>
@@ -2115,18 +2120,18 @@
       <c r="G38" s="19">
         <v>0</v>
       </c>
-      <c r="H38" s="36"/>
+      <c r="H38" s="27"/>
       <c r="I38" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J38" s="36"/>
+      <c r="J38" s="27"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="52"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="33"/>
       <c r="E39" s="6" t="s">
         <v>21</v>
       </c>
@@ -2136,18 +2141,18 @@
       <c r="G39" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H39" s="36"/>
+      <c r="H39" s="27"/>
       <c r="I39" s="20" t="str">
         <f t="shared" si="0"/>
         <v>n</v>
       </c>
-      <c r="J39" s="36"/>
+      <c r="J39" s="27"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="52"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="33"/>
       <c r="E40" s="6" t="s">
         <v>47</v>
       </c>
@@ -2157,18 +2162,18 @@
       <c r="G40" s="18">
         <v>0</v>
       </c>
-      <c r="H40" s="36"/>
+      <c r="H40" s="27"/>
       <c r="I40" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J40" s="36"/>
+      <c r="J40" s="27"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="53"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="34"/>
       <c r="E41" s="6" t="s">
         <v>34</v>
       </c>
@@ -2178,12 +2183,12 @@
       <c r="G41" s="19">
         <v>0</v>
       </c>
-      <c r="H41" s="58"/>
+      <c r="H41" s="28"/>
       <c r="I41" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J41" s="58"/>
+      <c r="J41" s="28"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2290,23 +2295,24 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="J15:J19"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B11"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B32:B41"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
     <mergeCell ref="D32:D41"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="D8:J8"/>
@@ -2323,24 +2329,23 @@
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="J30:J31"/>
     <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B32:B41"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="J15:J19"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B11"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="H25:H27"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Proje/Ödev Raporu.xlsx
+++ b/Proje/Ödev Raporu.xlsx
@@ -708,6 +708,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,9 +814,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1280,8 +1280,8 @@
   </sheetPr>
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1298,32 +1298,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -1350,11 +1350,11 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="61">
+      <c r="B5" s="44"/>
+      <c r="C5" s="26">
         <v>43077</v>
       </c>
       <c r="D5" s="5"/>
@@ -1374,58 +1374,58 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="15">
         <v>1700928</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="58"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="15">
         <v>1700956</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="58"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="15">
         <v>1700957</v>
       </c>
@@ -1440,16 +1440,16 @@
       <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="46"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="47"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -1504,18 +1504,18 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35">
+      <c r="A15" s="36">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="48">
         <f>A15*20</f>
         <v>1.5</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="32">
-        <v>0</v>
+      <c r="D15" s="33">
+        <v>4</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>12</v>
@@ -1526,7 +1526,7 @@
       <c r="G15" s="18">
         <v>0</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="27">
         <f>$A15*(G19*10%+IF(OR(G18="S",G18="s"),1,0)*5%+G17*50%+IF(OR(G16="S",G16="s"),1,0)*20%+IF(G15&gt;6,6,G15)/6*15%)*20</f>
         <v>0</v>
       </c>
@@ -1534,16 +1534,16 @@
         <f t="shared" ref="I15:I43" si="0">G15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="27">
         <f>$A15*(I19*10%+IF(OR(I18="S",I18="s"),1,0)*5%+I17*50%+IF(OR(I16="S",I16="s"),1,0)*20%+IF(I15&gt;6,6,I15)/6*15%)*20</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="33"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="6" t="s">
         <v>0</v>
       </c>
@@ -1553,18 +1553,18 @@
       <c r="G16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="27"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="20" t="str">
         <f t="shared" si="0"/>
         <v>n</v>
       </c>
-      <c r="J16" s="27"/>
+      <c r="J16" s="28"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="33"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="6" t="s">
         <v>54</v>
       </c>
@@ -1574,18 +1574,18 @@
       <c r="G17" s="19">
         <v>0</v>
       </c>
-      <c r="H17" s="27"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="27"/>
+      <c r="J17" s="28"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="33"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="6" t="s">
         <v>1</v>
       </c>
@@ -1595,18 +1595,18 @@
       <c r="G18" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="27"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="20" t="str">
         <f t="shared" si="0"/>
         <v>n</v>
       </c>
-      <c r="J18" s="27"/>
+      <c r="J18" s="28"/>
     </row>
     <row r="19" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="33"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="6" t="s">
         <v>17</v>
       </c>
@@ -1616,26 +1616,26 @@
       <c r="G19" s="19">
         <v>0</v>
       </c>
-      <c r="H19" s="27"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="27"/>
+      <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="35">
+      <c r="A20" s="36">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="38">
         <f>A20*20</f>
         <v>1.5</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="32">
-        <v>0</v>
+      <c r="D20" s="33">
+        <v>2</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>48</v>
@@ -1646,7 +1646,7 @@
       <c r="G20" s="18">
         <v>0</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="27">
         <f>$A20*(IF(G21&gt;16,16,G21)/16*80%+IF(G20&gt;2,2,G20)/2*20%)*20</f>
         <v>0</v>
       </c>
@@ -1654,16 +1654,16 @@
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="27">
         <f>$A20*(IF(I21&gt;16,16,I21)/16*80%+IF(I20&gt;2,2,I20)/2*20%)*20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="34"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="6" t="s">
         <v>49</v>
       </c>
@@ -1673,12 +1673,12 @@
       <c r="G21" s="18">
         <v>0</v>
       </c>
-      <c r="H21" s="28"/>
+      <c r="H21" s="29"/>
       <c r="I21" s="20">
         <f>G21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="28"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -1692,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>19</v>
@@ -1717,18 +1717,18 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="29">
+      <c r="A23" s="30">
         <v>0.3</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B23" s="31">
         <f>A23*20</f>
         <v>6</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="32">
-        <v>0</v>
+      <c r="D23" s="33">
+        <v>4</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>62</v>
@@ -1739,7 +1739,7 @@
       <c r="G23" s="19">
         <v>0</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="27">
         <f>$A23*(G23*75%+G24*25%)*20</f>
         <v>0</v>
       </c>
@@ -1747,16 +1747,16 @@
         <f>G23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="27">
         <f>$A23*(I23*75%+I24*25%)*20</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="34"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="6" t="s">
         <v>55</v>
       </c>
@@ -1766,26 +1766,26 @@
       <c r="G24" s="19">
         <v>0</v>
       </c>
-      <c r="H24" s="28"/>
+      <c r="H24" s="29"/>
       <c r="I24" s="20">
         <f t="shared" ref="I24:I27" si="1">G24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="28"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="29">
+      <c r="A25" s="30">
         <v>0.02</v>
       </c>
-      <c r="B25" s="30">
+      <c r="B25" s="31">
         <f>A25*20</f>
         <v>0.4</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="32">
-        <v>0</v>
+      <c r="D25" s="33">
+        <v>3</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>22</v>
@@ -1796,7 +1796,7 @@
       <c r="G25" s="18">
         <v>0</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="27">
         <f>$A25*(IF(G27&gt;2,2,G27)/2*30%+IF(G26&gt;2,2,G26)/2*30%+IF(G25&gt;2,2,G25)/2*40%)*20</f>
         <v>0</v>
       </c>
@@ -1804,16 +1804,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J25" s="26">
+      <c r="J25" s="27">
         <f>$A25*(IF(I27&gt;2,2,I27)/2*30%+IF(I26&gt;2,2,I26)/2*30%+IF(I25&gt;2,2,I25)/2*40%)*20</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="33"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="6" t="s">
         <v>24</v>
       </c>
@@ -1823,18 +1823,18 @@
       <c r="G26" s="18">
         <v>0</v>
       </c>
-      <c r="H26" s="27"/>
+      <c r="H26" s="28"/>
       <c r="I26" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="27"/>
+      <c r="J26" s="28"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="34"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="6" t="s">
         <v>23</v>
       </c>
@@ -1844,26 +1844,26 @@
       <c r="G27" s="18">
         <v>0</v>
       </c>
-      <c r="H27" s="28"/>
+      <c r="H27" s="29"/>
       <c r="I27" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J27" s="28"/>
+      <c r="J27" s="29"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="29">
+      <c r="A28" s="30">
         <v>0.05</v>
       </c>
-      <c r="B28" s="30">
+      <c r="B28" s="31">
         <f>A28*20</f>
         <v>1</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="32">
-        <v>0</v>
+      <c r="D28" s="33">
+        <v>1</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>42</v>
@@ -1874,7 +1874,7 @@
       <c r="G28" s="18">
         <v>0</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="27">
         <f>$A28*(G29*75%+IF(G28&gt;2,2,G28)/2*25%)*20</f>
         <v>0</v>
       </c>
@@ -1882,16 +1882,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="26">
+      <c r="J28" s="27">
         <f>$A28*(I29*75%+IF(I28&gt;2,2,I28)/2*25%)*20</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="34"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="6" t="s">
         <v>53</v>
       </c>
@@ -1901,26 +1901,26 @@
       <c r="G29" s="19">
         <v>0</v>
       </c>
-      <c r="H29" s="28"/>
+      <c r="H29" s="29"/>
       <c r="I29" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="28"/>
+      <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="35">
+      <c r="A30" s="36">
         <v>0.1</v>
       </c>
-      <c r="B30" s="47">
+      <c r="B30" s="48">
         <f>A30*20</f>
         <v>2</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="32">
-        <v>0</v>
+      <c r="D30" s="33">
+        <v>2</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>56</v>
@@ -1931,7 +1931,7 @@
       <c r="G30" s="18">
         <v>0</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="27">
         <f>$A30*(G31*75%+IF(G30&gt;2,2,G30)/2*25%)*20</f>
         <v>0</v>
       </c>
@@ -1939,16 +1939,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="26">
+      <c r="J30" s="27">
         <f>$A30*(I31*50%+IF(I30&gt;2,2,I30)/2*50%)*20</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="34"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="6" t="s">
         <v>57</v>
       </c>
@@ -1958,25 +1958,25 @@
       <c r="G31" s="19">
         <v>0</v>
       </c>
-      <c r="H31" s="28"/>
+      <c r="H31" s="29"/>
       <c r="I31" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J31" s="28"/>
+      <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="35">
+      <c r="A32" s="36">
         <v>0.3</v>
       </c>
-      <c r="B32" s="47">
+      <c r="B32" s="48">
         <f>A32*20</f>
         <v>6</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="33">
         <v>0</v>
       </c>
       <c r="E32" s="6" t="s">
@@ -1988,7 +1988,7 @@
       <c r="G32" s="18">
         <v>0</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="27">
         <f>$A32*(G41*50%+IF(G40&gt;4,4,G40)/4*5%+IF(OR(G39="S",G39="s"),1,0)*5%+G38*15%+IF(G37&gt;2,2,G37)/2*10%+IF(OR(G36="S",G36="s"),1,0)*10%+(IF(G35&gt;1,1,G35)/1+IF(G34&gt;1,1,G34)/1+IF(G33&gt;1,1,G33)/1+IF(G32&gt;1,1,G32)/1)/4*2.5%+(IF(SUM(G32:G35)&gt;7,7,SUM(G32:G35))-(IF(G35&gt;1,1,G35)/1+IF(G34&gt;1,1,G34)/1+IF(G33&gt;1,1,G33)/1+IF(G32&gt;1,1,G32)/1))/3*2.5%)*20</f>
         <v>0</v>
       </c>
@@ -1996,16 +1996,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J32" s="26">
+      <c r="J32" s="27">
         <f>$A32*(I41*50%+IF(I40&gt;4,4,I40)/4*5%+IF(OR(I39="S",I39="s"),1,0)*5%+I38*15%+IF(I37&gt;2,2,I37)/2*10%+IF(OR(I36="S",I36="s"),1,0)*10%+(IF(I35&gt;1,1,I35)/1+IF(I34&gt;1,1,I34)/1+IF(I33&gt;1,1,I33)/1+IF(I32&gt;1,1,I32)/1)/4*2.5%+(IF(SUM(I32:I35)&gt;7,7,SUM(I32:I35))-(IF(I35&gt;1,1,I35)/1+IF(I34&gt;1,1,I34)/1+IF(I33&gt;1,1,I33)/1+IF(I32&gt;1,1,I32)/1))/3*2.5%)*20</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="33"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="6" t="s">
         <v>44</v>
       </c>
@@ -2015,18 +2015,18 @@
       <c r="G33" s="18">
         <v>0</v>
       </c>
-      <c r="H33" s="27"/>
+      <c r="H33" s="28"/>
       <c r="I33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J33" s="27"/>
+      <c r="J33" s="28"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="33"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="34"/>
       <c r="E34" s="6" t="s">
         <v>45</v>
       </c>
@@ -2036,18 +2036,18 @@
       <c r="G34" s="18">
         <v>0</v>
       </c>
-      <c r="H34" s="27"/>
+      <c r="H34" s="28"/>
       <c r="I34" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J34" s="27"/>
+      <c r="J34" s="28"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="33"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="34"/>
       <c r="E35" s="6" t="s">
         <v>26</v>
       </c>
@@ -2057,18 +2057,18 @@
       <c r="G35" s="18">
         <v>0</v>
       </c>
-      <c r="H35" s="27"/>
+      <c r="H35" s="28"/>
       <c r="I35" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J35" s="27"/>
+      <c r="J35" s="28"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="33"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="34"/>
       <c r="E36" s="6" t="s">
         <v>25</v>
       </c>
@@ -2078,18 +2078,18 @@
       <c r="G36" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="27"/>
+      <c r="H36" s="28"/>
       <c r="I36" s="20" t="str">
         <f t="shared" si="0"/>
         <v>n</v>
       </c>
-      <c r="J36" s="27"/>
+      <c r="J36" s="28"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="33"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="34"/>
       <c r="E37" s="6" t="s">
         <v>20</v>
       </c>
@@ -2099,18 +2099,18 @@
       <c r="G37" s="18">
         <v>0</v>
       </c>
-      <c r="H37" s="27"/>
+      <c r="H37" s="28"/>
       <c r="I37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J37" s="27"/>
+      <c r="J37" s="28"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="33"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="34"/>
       <c r="E38" s="6" t="s">
         <v>58</v>
       </c>
@@ -2120,18 +2120,18 @@
       <c r="G38" s="19">
         <v>0</v>
       </c>
-      <c r="H38" s="27"/>
+      <c r="H38" s="28"/>
       <c r="I38" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J38" s="27"/>
+      <c r="J38" s="28"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="33"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="34"/>
       <c r="E39" s="6" t="s">
         <v>21</v>
       </c>
@@ -2141,18 +2141,18 @@
       <c r="G39" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H39" s="27"/>
+      <c r="H39" s="28"/>
       <c r="I39" s="20" t="str">
         <f t="shared" si="0"/>
         <v>n</v>
       </c>
-      <c r="J39" s="27"/>
+      <c r="J39" s="28"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="33"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="34"/>
       <c r="E40" s="6" t="s">
         <v>47</v>
       </c>
@@ -2162,18 +2162,18 @@
       <c r="G40" s="18">
         <v>0</v>
       </c>
-      <c r="H40" s="27"/>
+      <c r="H40" s="28"/>
       <c r="I40" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J40" s="27"/>
+      <c r="J40" s="28"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="34"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="6" t="s">
         <v>34</v>
       </c>
@@ -2183,12 +2183,12 @@
       <c r="G41" s="19">
         <v>0</v>
       </c>
-      <c r="H41" s="28"/>
+      <c r="H41" s="29"/>
       <c r="I41" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J41" s="28"/>
+      <c r="J41" s="29"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="D44" s="8">
         <f>SUM(D15:D43)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>38</v>

--- a/Proje/Ödev Raporu.xlsx
+++ b/Proje/Ödev Raporu.xlsx
@@ -711,110 +711,110 @@
     <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="121">
@@ -1280,8 +1280,8 @@
   </sheetPr>
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:C27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1298,32 +1298,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -1350,12 +1350,12 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="26">
-        <v>43077</v>
+        <v>43083</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="3"/>
@@ -1374,58 +1374,58 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="44"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="44"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="39"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="15">
         <v>1700928</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="47"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="15">
         <v>1700956</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="47"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="15">
         <v>1700957</v>
       </c>
@@ -1440,16 +1440,16 @@
       <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="61"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="47"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -1504,17 +1504,17 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
+      <c r="A15" s="27">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="B15" s="48">
+      <c r="B15" s="31">
         <f>A15*20</f>
         <v>1.5</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="52">
         <v>4</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -1526,7 +1526,7 @@
       <c r="G15" s="18">
         <v>0</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="36">
         <f>$A15*(G19*10%+IF(OR(G18="S",G18="s"),1,0)*5%+G17*50%+IF(OR(G16="S",G16="s"),1,0)*20%+IF(G15&gt;6,6,G15)/6*15%)*20</f>
         <v>0</v>
       </c>
@@ -1534,16 +1534,16 @@
         <f t="shared" ref="I15:I43" si="0">G15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="36">
         <f>$A15*(I19*10%+IF(OR(I18="S",I18="s"),1,0)*5%+I17*50%+IF(OR(I16="S",I16="s"),1,0)*20%+IF(I15&gt;6,6,I15)/6*15%)*20</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="34"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="6" t="s">
         <v>0</v>
       </c>
@@ -1553,18 +1553,18 @@
       <c r="G16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="28"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="20" t="str">
         <f t="shared" si="0"/>
         <v>n</v>
       </c>
-      <c r="J16" s="28"/>
+      <c r="J16" s="37"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="34"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="6" t="s">
         <v>54</v>
       </c>
@@ -1574,18 +1574,18 @@
       <c r="G17" s="19">
         <v>0</v>
       </c>
-      <c r="H17" s="28"/>
+      <c r="H17" s="37"/>
       <c r="I17" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="28"/>
+      <c r="J17" s="37"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="34"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="6" t="s">
         <v>1</v>
       </c>
@@ -1595,18 +1595,18 @@
       <c r="G18" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="28"/>
+      <c r="H18" s="37"/>
       <c r="I18" s="20" t="str">
         <f t="shared" si="0"/>
         <v>n</v>
       </c>
-      <c r="J18" s="28"/>
+      <c r="J18" s="37"/>
     </row>
     <row r="19" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="34"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="6" t="s">
         <v>17</v>
       </c>
@@ -1616,25 +1616,25 @@
       <c r="G19" s="19">
         <v>0</v>
       </c>
-      <c r="H19" s="28"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="28"/>
+      <c r="J19" s="37"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="36">
+      <c r="A20" s="27">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="B20" s="38">
+      <c r="B20" s="60">
         <f>A20*20</f>
         <v>1.5</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="52">
         <v>2</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -1646,7 +1646,7 @@
       <c r="G20" s="18">
         <v>0</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="36">
         <f>$A20*(IF(G21&gt;16,16,G21)/16*80%+IF(G20&gt;2,2,G20)/2*20%)*20</f>
         <v>0</v>
       </c>
@@ -1654,16 +1654,16 @@
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="36">
         <f>$A20*(IF(I21&gt;16,16,I21)/16*80%+IF(I20&gt;2,2,I20)/2*20%)*20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="35"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="6" t="s">
         <v>49</v>
       </c>
@@ -1673,12 +1673,12 @@
       <c r="G21" s="18">
         <v>0</v>
       </c>
-      <c r="H21" s="29"/>
+      <c r="H21" s="59"/>
       <c r="I21" s="20">
         <f>G21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="29"/>
+      <c r="J21" s="59"/>
     </row>
     <row r="22" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -1717,17 +1717,17 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
+      <c r="A23" s="51">
         <v>0.3</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="46">
         <f>A23*20</f>
         <v>6</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="52">
         <v>4</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -1739,7 +1739,7 @@
       <c r="G23" s="19">
         <v>0</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="36">
         <f>$A23*(G23*75%+G24*25%)*20</f>
         <v>0</v>
       </c>
@@ -1747,16 +1747,16 @@
         <f>G23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="36">
         <f>$A23*(I23*75%+I24*25%)*20</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="35"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="6" t="s">
         <v>55</v>
       </c>
@@ -1766,25 +1766,25 @@
       <c r="G24" s="19">
         <v>0</v>
       </c>
-      <c r="H24" s="29"/>
+      <c r="H24" s="59"/>
       <c r="I24" s="20">
         <f t="shared" ref="I24:I27" si="1">G24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="29"/>
+      <c r="J24" s="59"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="30">
+      <c r="A25" s="51">
         <v>0.02</v>
       </c>
-      <c r="B25" s="31">
+      <c r="B25" s="46">
         <f>A25*20</f>
         <v>0.4</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="52">
         <v>3</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -1796,7 +1796,7 @@
       <c r="G25" s="18">
         <v>0</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="36">
         <f>$A25*(IF(G27&gt;2,2,G27)/2*30%+IF(G26&gt;2,2,G26)/2*30%+IF(G25&gt;2,2,G25)/2*40%)*20</f>
         <v>0</v>
       </c>
@@ -1804,16 +1804,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="36">
         <f>$A25*(IF(I27&gt;2,2,I27)/2*30%+IF(I26&gt;2,2,I26)/2*30%+IF(I25&gt;2,2,I25)/2*40%)*20</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="34"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="6" t="s">
         <v>24</v>
       </c>
@@ -1823,18 +1823,18 @@
       <c r="G26" s="18">
         <v>0</v>
       </c>
-      <c r="H26" s="28"/>
+      <c r="H26" s="37"/>
       <c r="I26" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="28"/>
+      <c r="J26" s="37"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="35"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="6" t="s">
         <v>23</v>
       </c>
@@ -1844,26 +1844,26 @@
       <c r="G27" s="18">
         <v>0</v>
       </c>
-      <c r="H27" s="29"/>
+      <c r="H27" s="59"/>
       <c r="I27" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J27" s="29"/>
+      <c r="J27" s="59"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
+      <c r="A28" s="51">
         <v>0.05</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28" s="46">
         <f>A28*20</f>
         <v>1</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="33">
-        <v>1</v>
+      <c r="D28" s="52">
+        <v>2</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>42</v>
@@ -1874,7 +1874,7 @@
       <c r="G28" s="18">
         <v>0</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="36">
         <f>$A28*(G29*75%+IF(G28&gt;2,2,G28)/2*25%)*20</f>
         <v>0</v>
       </c>
@@ -1882,16 +1882,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="27">
+      <c r="J28" s="36">
         <f>$A28*(I29*75%+IF(I28&gt;2,2,I28)/2*25%)*20</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="35"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="54"/>
       <c r="E29" s="6" t="s">
         <v>53</v>
       </c>
@@ -1901,25 +1901,25 @@
       <c r="G29" s="19">
         <v>0</v>
       </c>
-      <c r="H29" s="29"/>
+      <c r="H29" s="59"/>
       <c r="I29" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="29"/>
+      <c r="J29" s="59"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="36">
+      <c r="A30" s="27">
         <v>0.1</v>
       </c>
-      <c r="B30" s="48">
+      <c r="B30" s="31">
         <f>A30*20</f>
         <v>2</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="33">
+      <c r="D30" s="52">
         <v>2</v>
       </c>
       <c r="E30" s="6" t="s">
@@ -1931,7 +1931,7 @@
       <c r="G30" s="18">
         <v>0</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H30" s="36">
         <f>$A30*(G31*75%+IF(G30&gt;2,2,G30)/2*25%)*20</f>
         <v>0</v>
       </c>
@@ -1939,16 +1939,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="27">
+      <c r="J30" s="36">
         <f>$A30*(I31*50%+IF(I30&gt;2,2,I30)/2*50%)*20</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="35"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="54"/>
       <c r="E31" s="6" t="s">
         <v>57</v>
       </c>
@@ -1958,25 +1958,25 @@
       <c r="G31" s="19">
         <v>0</v>
       </c>
-      <c r="H31" s="29"/>
+      <c r="H31" s="59"/>
       <c r="I31" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J31" s="29"/>
+      <c r="J31" s="59"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36">
+      <c r="A32" s="27">
         <v>0.3</v>
       </c>
-      <c r="B32" s="48">
+      <c r="B32" s="31">
         <f>A32*20</f>
         <v>6</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="33">
+      <c r="D32" s="52">
         <v>0</v>
       </c>
       <c r="E32" s="6" t="s">
@@ -1988,7 +1988,7 @@
       <c r="G32" s="18">
         <v>0</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H32" s="36">
         <f>$A32*(G41*50%+IF(G40&gt;4,4,G40)/4*5%+IF(OR(G39="S",G39="s"),1,0)*5%+G38*15%+IF(G37&gt;2,2,G37)/2*10%+IF(OR(G36="S",G36="s"),1,0)*10%+(IF(G35&gt;1,1,G35)/1+IF(G34&gt;1,1,G34)/1+IF(G33&gt;1,1,G33)/1+IF(G32&gt;1,1,G32)/1)/4*2.5%+(IF(SUM(G32:G35)&gt;7,7,SUM(G32:G35))-(IF(G35&gt;1,1,G35)/1+IF(G34&gt;1,1,G34)/1+IF(G33&gt;1,1,G33)/1+IF(G32&gt;1,1,G32)/1))/3*2.5%)*20</f>
         <v>0</v>
       </c>
@@ -1996,16 +1996,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J32" s="27">
+      <c r="J32" s="36">
         <f>$A32*(I41*50%+IF(I40&gt;4,4,I40)/4*5%+IF(OR(I39="S",I39="s"),1,0)*5%+I38*15%+IF(I37&gt;2,2,I37)/2*10%+IF(OR(I36="S",I36="s"),1,0)*10%+(IF(I35&gt;1,1,I35)/1+IF(I34&gt;1,1,I34)/1+IF(I33&gt;1,1,I33)/1+IF(I32&gt;1,1,I32)/1)/4*2.5%+(IF(SUM(I32:I35)&gt;7,7,SUM(I32:I35))-(IF(I35&gt;1,1,I35)/1+IF(I34&gt;1,1,I34)/1+IF(I33&gt;1,1,I33)/1+IF(I32&gt;1,1,I32)/1))/3*2.5%)*20</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="34"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="6" t="s">
         <v>44</v>
       </c>
@@ -2015,18 +2015,18 @@
       <c r="G33" s="18">
         <v>0</v>
       </c>
-      <c r="H33" s="28"/>
+      <c r="H33" s="37"/>
       <c r="I33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J33" s="28"/>
+      <c r="J33" s="37"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="34"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="6" t="s">
         <v>45</v>
       </c>
@@ -2036,18 +2036,18 @@
       <c r="G34" s="18">
         <v>0</v>
       </c>
-      <c r="H34" s="28"/>
+      <c r="H34" s="37"/>
       <c r="I34" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J34" s="28"/>
+      <c r="J34" s="37"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="34"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="53"/>
       <c r="E35" s="6" t="s">
         <v>26</v>
       </c>
@@ -2057,18 +2057,18 @@
       <c r="G35" s="18">
         <v>0</v>
       </c>
-      <c r="H35" s="28"/>
+      <c r="H35" s="37"/>
       <c r="I35" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J35" s="28"/>
+      <c r="J35" s="37"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="34"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="53"/>
       <c r="E36" s="6" t="s">
         <v>25</v>
       </c>
@@ -2078,18 +2078,18 @@
       <c r="G36" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="28"/>
+      <c r="H36" s="37"/>
       <c r="I36" s="20" t="str">
         <f t="shared" si="0"/>
         <v>n</v>
       </c>
-      <c r="J36" s="28"/>
+      <c r="J36" s="37"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="34"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="53"/>
       <c r="E37" s="6" t="s">
         <v>20</v>
       </c>
@@ -2099,18 +2099,18 @@
       <c r="G37" s="18">
         <v>0</v>
       </c>
-      <c r="H37" s="28"/>
+      <c r="H37" s="37"/>
       <c r="I37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J37" s="28"/>
+      <c r="J37" s="37"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="34"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="53"/>
       <c r="E38" s="6" t="s">
         <v>58</v>
       </c>
@@ -2120,18 +2120,18 @@
       <c r="G38" s="19">
         <v>0</v>
       </c>
-      <c r="H38" s="28"/>
+      <c r="H38" s="37"/>
       <c r="I38" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J38" s="28"/>
+      <c r="J38" s="37"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="34"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="53"/>
       <c r="E39" s="6" t="s">
         <v>21</v>
       </c>
@@ -2141,18 +2141,18 @@
       <c r="G39" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H39" s="28"/>
+      <c r="H39" s="37"/>
       <c r="I39" s="20" t="str">
         <f t="shared" si="0"/>
         <v>n</v>
       </c>
-      <c r="J39" s="28"/>
+      <c r="J39" s="37"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="34"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="53"/>
       <c r="E40" s="6" t="s">
         <v>47</v>
       </c>
@@ -2162,18 +2162,18 @@
       <c r="G40" s="18">
         <v>0</v>
       </c>
-      <c r="H40" s="28"/>
+      <c r="H40" s="37"/>
       <c r="I40" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J40" s="28"/>
+      <c r="J40" s="37"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="35"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="54"/>
       <c r="E41" s="6" t="s">
         <v>34</v>
       </c>
@@ -2183,12 +2183,12 @@
       <c r="G41" s="19">
         <v>0</v>
       </c>
-      <c r="H41" s="29"/>
+      <c r="H41" s="59"/>
       <c r="I41" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J41" s="29"/>
+      <c r="J41" s="59"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="D44" s="8">
         <f>SUM(D15:D43)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>38</v>
@@ -2295,24 +2295,23 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="J15:J19"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B11"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B32:B41"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="D32:D41"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="D8:J8"/>
@@ -2329,23 +2328,24 @@
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="J30:J31"/>
     <mergeCell ref="D20:D21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B32:B41"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="J15:J19"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B11"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
